--- a/Projectinformatie/Windturbine_keuze_v2.xlsx
+++ b/Projectinformatie/Windturbine_keuze_v2.xlsx
@@ -12,22 +12,24 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9885"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="AD 5-116" sheetId="2" r:id="rId2"/>
-    <sheet name="Senvion 6.2M 126" sheetId="3" r:id="rId3"/>
-    <sheet name="Vestas V164" sheetId="4" r:id="rId4"/>
+    <sheet name="Totaal" sheetId="1" r:id="rId1"/>
+    <sheet name="Weibullverdeling" sheetId="6" r:id="rId2"/>
+    <sheet name="Windenergie" sheetId="5" r:id="rId3"/>
+    <sheet name="AD 5-116" sheetId="2" r:id="rId4"/>
+    <sheet name="Senvion 6.2M 126" sheetId="3" r:id="rId5"/>
+    <sheet name="Vestas V164" sheetId="4" r:id="rId6"/>
+    <sheet name="Senvion 6.2M 152" sheetId="7" r:id="rId7"/>
+    <sheet name="Sinovel SL6000" sheetId="8" r:id="rId8"/>
+    <sheet name="Sinovel SL5000" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
   <si>
     <t>Afstand meest voorkomende windrichting</t>
-  </si>
-  <si>
-    <t>*Parkrendement -10%</t>
   </si>
   <si>
     <t>Afstand minst voorkomende windrichting</t>
@@ -63,18 +65,6 @@
     <t>Beschikbaarheid</t>
   </si>
   <si>
-    <t>Vermogen bij gem. windverdeling[MW]</t>
-  </si>
-  <si>
-    <t>Park vermogen bij gem. windverdeling[MW]</t>
-  </si>
-  <si>
-    <t>Verwacht vermogen bij gem. verdeling</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Britannia</t>
   </si>
   <si>
@@ -90,9 +80,6 @@
     <t>SWT-6.0-120</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-siemens-swt-6.0-120-tid86.html</t>
-  </si>
-  <si>
     <t>6.2M126</t>
   </si>
   <si>
@@ -102,25 +89,13 @@
     <t>Beschikbaar</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-senvion-6.2m126-tid36.html</t>
-  </si>
-  <si>
     <t>ST10</t>
   </si>
   <si>
     <t>Prototype</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-sway-turbine-as-st10-tid51.html</t>
-  </si>
-  <si>
     <t>AD 5-116(Voorheen: M5000-116)</t>
-  </si>
-  <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-adwen-ad-5-116-tid217.html</t>
-  </si>
-  <si>
-    <t>http://en.wind-turbine-models.com/turbines/22-multibrid-m5000</t>
   </si>
   <si>
     <t>M5000-116</t>
@@ -132,43 +107,22 @@
     <t>Nee</t>
   </si>
   <si>
-    <t>http://www.siemens.com/content/dam/internet/siemens-com/global/market-specific-solutions/wind/data_sheets/swt-8.0-154-data-sheet-wind-turbine.pdf</t>
-  </si>
-  <si>
     <t>UP6000-136</t>
-  </si>
-  <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-guodian-united-power-up6000-136-tid128.html</t>
   </si>
   <si>
     <t>E112/4500</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-enercon-e112-4500-tid13.html</t>
-  </si>
-  <si>
     <t>HTW5.2-127</t>
-  </si>
-  <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-hitachi-ltd--htw5.2-127-tid238.html</t>
   </si>
   <si>
     <t>Senvion 5M</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-senvion-5m-tid35.html</t>
-  </si>
-  <si>
     <t>HTW5.0-126</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-hitachi-ltd--htw5.0-126-tid153.html</t>
-  </si>
-  <si>
     <t>SL5000/126</t>
-  </si>
-  <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-sinovel-sl5000-tid227.html</t>
   </si>
   <si>
     <t>HZ 127-5MW</t>
@@ -177,25 +131,13 @@
     <t>SCD 6.0MW</t>
   </si>
   <si>
-    <t>http://www.scd-technology.com/fileadmin/Download/DataSheet_SCD_6.0MW.pdf</t>
-  </si>
-  <si>
     <t>Vestas V164 8.0MW</t>
-  </si>
-  <si>
-    <t>http://www.homepages.ucl.ac.uk/~uceseug/Fluids2/Wind_Turbines/Turbines/V164-8MW.pdf</t>
   </si>
   <si>
     <t>GE 4.1-113</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-ge-energy-ge-4.1-113--tid108.html</t>
-  </si>
-  <si>
     <t>Siemens SWT-7.0-154</t>
-  </si>
-  <si>
-    <t>http://www.siemens.com/content/dam/internet/siemens-com/global/market-specific-solutions/wind/data_sheets/data-sheet-wind-turbine-swt-7.0-154.pdf</t>
   </si>
   <si>
     <t>AD 5-132</t>
@@ -204,22 +146,13 @@
     <t>SeaTitan 5.5MW</t>
   </si>
   <si>
-    <t>http://www.amsc.com/documents/wt5500-data-sheet/</t>
-  </si>
-  <si>
     <t>HQ5500/140</t>
   </si>
   <si>
     <t>SWT-4.0-120</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-siemens-swt-4.0-120-tid179.html</t>
-  </si>
-  <si>
     <t>SeaTitan 10MW</t>
-  </si>
-  <si>
-    <t>http://www.amsc.com/documents/seatitan-10-mw-wind-turbine-data-sheet/</t>
   </si>
   <si>
     <t>AD 5-135</t>
@@ -228,52 +161,28 @@
     <t>6.2M152</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-senvion-6.2m152-tid192.html</t>
-  </si>
-  <si>
     <t>Haliade 150-6MW</t>
-  </si>
-  <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-ge-energy-haliade-150-6mw-tid71.html</t>
   </si>
   <si>
     <t>Siemens SWT-6.0-154</t>
   </si>
   <si>
-    <t>http://www.siemens.com/content/dam/internet/siemens-com/global/market-specific-solutions/wind/data_sheets/data-sheet-wind-turbine-swt-6.0-154.pdf</t>
-  </si>
-  <si>
     <t>SL6000/155</t>
-  </si>
-  <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-sinovel-sl6000-155-tid159.html</t>
   </si>
   <si>
     <t>AD 8-180</t>
   </si>
   <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-adwen-ad-8-180-tid197.html</t>
-  </si>
-  <si>
     <t>Siemens SWT-4.0-130</t>
   </si>
   <si>
-    <t>http://www.siemens.com/global/en/home/markets/wind/turbines/swt-4-0-130.html</t>
-  </si>
-  <si>
     <t>S7.0-171</t>
-  </si>
-  <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-samsung-heavy-industries-s7.0-171-tid37.html</t>
   </si>
   <si>
     <t>H 151-5MW</t>
   </si>
   <si>
     <t>EN-4.0-136</t>
-  </si>
-  <si>
-    <t>http://www.4coffshore.com/windfarms/turbine-envision-energy-en-4.0-136-tid229.html</t>
   </si>
   <si>
     <t>Windturbine:</t>
@@ -326,20 +235,76 @@
   <si>
     <t>Maximum aantal turbines</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Windsnelheid[m/s]</t>
+  </si>
+  <si>
+    <t>Kans[%]</t>
+  </si>
+  <si>
+    <t>Tijd per jaar[h]</t>
+  </si>
+  <si>
+    <t>Weibullverdeling</t>
+  </si>
+  <si>
+    <t>Aantal uren windsnelheid[h]</t>
+  </si>
+  <si>
+    <t>Vermogen[kW]</t>
+  </si>
+  <si>
+    <t>Energie[kWh]</t>
+  </si>
+  <si>
+    <t>Totale energie:</t>
+  </si>
+  <si>
+    <t>Opgewekte energie[kWh]</t>
+  </si>
+  <si>
+    <t>Prestatiefactor(Cp)</t>
+  </si>
+  <si>
+    <t>Prestatiefactor - Cp[%]</t>
+  </si>
+  <si>
+    <t>Senvion 6.2M 152</t>
+  </si>
+  <si>
+    <t>Sinovel SL5000</t>
+  </si>
+  <si>
+    <t>Sinovel SL6000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,8 +321,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +363,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -384,31 +378,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -425,10 +421,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,7 +462,7 @@
     <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="63">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -514,16 +540,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -749,6 +765,243 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1070,11 +1323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485423048"/>
-        <c:axId val="485425792"/>
+        <c:axId val="567571856"/>
+        <c:axId val="567572248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485423048"/>
+        <c:axId val="567571856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,12 +1440,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485425792"/>
+        <c:crossAx val="567572248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485425792"/>
+        <c:axId val="567572248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1558,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485423048"/>
+        <c:crossAx val="567571856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1401,6 +1654,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1517,7 +1771,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'AD 5-116'!$A$75:$A$85</c:f>
+              <c:f>'AD 5-116'!$A$90:$A$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1559,7 +1813,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AD 5-116'!$B$75:$B$85</c:f>
+              <c:f>'AD 5-116'!$B$90:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1609,11 +1863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485419520"/>
-        <c:axId val="485421480"/>
+        <c:axId val="567573424"/>
+        <c:axId val="567567544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485419520"/>
+        <c:axId val="567573424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,12 +1924,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485421480"/>
+        <c:crossAx val="567567544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485421480"/>
+        <c:axId val="567567544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1986,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485419520"/>
+        <c:crossAx val="567573424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1996,11 +2250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485426968"/>
-        <c:axId val="485415208"/>
+        <c:axId val="567567936"/>
+        <c:axId val="567568720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485426968"/>
+        <c:axId val="567567936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2114,12 +2368,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485415208"/>
+        <c:crossAx val="567568720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485415208"/>
+        <c:axId val="567568720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2491,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485426968"/>
+        <c:crossAx val="567567936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2301,6 +2555,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2580,11 +2835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485418344"/>
-        <c:axId val="485418736"/>
+        <c:axId val="567574600"/>
+        <c:axId val="567573032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485418344"/>
+        <c:axId val="567574600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,12 +2896,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485418736"/>
+        <c:crossAx val="567573032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485418736"/>
+        <c:axId val="567573032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2958,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485418344"/>
+        <c:crossAx val="567574600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2717,6 +2972,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2798,6 +3054,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3014,11 +3271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="485420696"/>
-        <c:axId val="485421088"/>
+        <c:axId val="567575776"/>
+        <c:axId val="567569504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="485420696"/>
+        <c:axId val="567575776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,12 +3332,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485421088"/>
+        <c:crossAx val="567569504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485421088"/>
+        <c:axId val="567569504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3394,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485420696"/>
+        <c:crossAx val="567575776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3151,6 +3408,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3232,6 +3490,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3507,11 +3766,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="485427752"/>
-        <c:axId val="485429712"/>
+        <c:axId val="567564800"/>
+        <c:axId val="567566368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485427752"/>
+        <c:axId val="567564800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,7 +3813,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485429712"/>
+        <c:crossAx val="567566368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3562,7 +3821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485429712"/>
+        <c:axId val="567566368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3872,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485427752"/>
+        <c:crossAx val="567564800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3677,6 +3936,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3952,11 +4212,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="485416776"/>
-        <c:axId val="485415600"/>
+        <c:axId val="567565584"/>
+        <c:axId val="567566760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485416776"/>
+        <c:axId val="567565584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +4259,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485415600"/>
+        <c:crossAx val="567566760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4007,7 +4267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485415600"/>
+        <c:axId val="567566760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4058,7 +4318,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485416776"/>
+        <c:crossAx val="567565584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4122,6 +4382,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4397,11 +4658,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="485417168"/>
-        <c:axId val="485419912"/>
+        <c:axId val="567568328"/>
+        <c:axId val="567569112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485417168"/>
+        <c:axId val="567568328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +4705,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485419912"/>
+        <c:crossAx val="567569112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4452,7 +4713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485419912"/>
+        <c:axId val="567569112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -4504,7 +4765,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485417168"/>
+        <c:crossAx val="567568328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -8999,15 +9260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>187960</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>407035</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>492760</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>711835</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9220,42 +9481,147 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:Y39" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A6:K39" headerRowCount="0" totalsRowShown="0">
   <sortState ref="A6:Y39">
     <sortCondition descending="1" ref="B6:B39"/>
   </sortState>
-  <tableColumns count="25">
+  <tableColumns count="11">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4" dataDxfId="33">
+    <tableColumn id="4" name="Column4" dataDxfId="62">
       <calculatedColumnFormula>ROUNDUP((342/B6),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Column5" dataDxfId="32">
+    <tableColumn id="5" name="Column5" dataDxfId="61">
       <calculatedColumnFormula>ROUNDDOWN((380/B6),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Column6"/>
-    <tableColumn id="7" name="Column7"/>
-    <tableColumn id="8" name="Column8"/>
-    <tableColumn id="9" name="Column9"/>
-    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="7" name="Column7" dataDxfId="46"/>
+    <tableColumn id="8" name="Column8" dataDxfId="33"/>
+    <tableColumn id="9" name="Column9" dataDxfId="32"/>
+    <tableColumn id="10" name="Column10" dataDxfId="31"/>
     <tableColumn id="11" name="Column11"/>
-    <tableColumn id="12" name="Column12"/>
-    <tableColumn id="13" name="Column13"/>
-    <tableColumn id="14" name="Column14"/>
-    <tableColumn id="15" name="Column15"/>
-    <tableColumn id="16" name="Column16"/>
-    <tableColumn id="17" name="Column17"/>
-    <tableColumn id="18" name="Column18"/>
-    <tableColumn id="19" name="Column19"/>
-    <tableColumn id="20" name="Column20"/>
-    <tableColumn id="21" name="Column21"/>
-    <tableColumn id="22" name="Column22"/>
-    <tableColumn id="23" name="Column23"/>
-    <tableColumn id="24" name="Column24"/>
-    <tableColumn id="25" name="Column25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A2:C33" totalsRowShown="0" headerRowDxfId="60">
+  <autoFilter ref="A2:C33"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Windsnelheid[m/s]"/>
+    <tableColumn id="2" name="Kans[%]" dataDxfId="59">
+      <calculatedColumnFormula>WEIBULL(A3,2.18,10.9,FALSE)*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Tijd per jaar[h]">
+      <calculatedColumnFormula>365*24*(B3/100)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A2:D34" totalsRowShown="0" headerRowDxfId="58">
+  <autoFilter ref="A2:D34"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Windsnelheid[m/s]"/>
+    <tableColumn id="2" name="Aantal uren windsnelheid[h]">
+      <calculatedColumnFormula>Weibullverdeling!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Vermogen[kW]" dataDxfId="57">
+      <calculatedColumnFormula>(0.5*1.293*PI()*(82^2)*(A3^3))/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Energie[kWh]" dataDxfId="56">
+      <calculatedColumnFormula>B3*C3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A41:D74" totalsRowShown="0" headerRowDxfId="54">
+  <autoFilter ref="A41:D74"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Windsnelheid[m/s]"/>
+    <tableColumn id="2" name="Vermogen[kW]"/>
+    <tableColumn id="3" name="Tijd per jaar[h]" dataDxfId="55"/>
+    <tableColumn id="4" name="Opgewekte energie[kWh]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel46" displayName="Tabel46" ref="A63:D96" totalsRowShown="0" headerRowDxfId="53">
+  <autoFilter ref="A63:D96"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Windsnelheid[m/s]"/>
+    <tableColumn id="2" name="Vermogen[kW]" dataDxfId="51"/>
+    <tableColumn id="3" name="Tijd per jaar[h]" dataDxfId="50"/>
+    <tableColumn id="4" name="Opgewekte energie[kWh]" dataDxfId="49"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel467" displayName="Tabel467" ref="A49:D82" totalsRowShown="0" headerRowDxfId="52">
+  <autoFilter ref="A49:D82"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Windsnelheid[m/s]"/>
+    <tableColumn id="2" name="Vermogen[kW]"/>
+    <tableColumn id="3" name="Tijd per jaar[h]" dataDxfId="48"/>
+    <tableColumn id="4" name="Opgewekte energie[kWh]" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel468" displayName="Tabel468" ref="A2:D35" totalsRowShown="0" headerRowDxfId="45">
+  <autoFilter ref="A2:D35"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Windsnelheid[m/s]"/>
+    <tableColumn id="2" name="Vermogen[kW]" dataDxfId="44"/>
+    <tableColumn id="3" name="Tijd per jaar[h]" dataDxfId="42">
+      <calculatedColumnFormula>Weibullverdeling!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Opgewekte energie[kWh]" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabel4689" displayName="Tabel4689" ref="A2:D35" totalsRowShown="0" headerRowDxfId="41">
+  <autoFilter ref="A2:D35"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Windsnelheid[m/s]"/>
+    <tableColumn id="2" name="Vermogen[kW]" dataDxfId="40"/>
+    <tableColumn id="3" name="Tijd per jaar[h]" dataDxfId="39">
+      <calculatedColumnFormula>Weibullverdeling!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Opgewekte energie[kWh]" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabel468910" displayName="Tabel468910" ref="A2:D35" totalsRowShown="0" headerRowDxfId="37">
+  <autoFilter ref="A2:D35"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Windsnelheid[m/s]"/>
+    <tableColumn id="2" name="Vermogen[kW]" dataDxfId="36"/>
+    <tableColumn id="3" name="Tijd per jaar[h]" dataDxfId="35">
+      <calculatedColumnFormula>Weibullverdeling!C3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Opgewekte energie[kWh]" dataDxfId="34"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -9519,8 +9885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9531,10 +9897,11 @@
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
@@ -9551,13 +9918,10 @@
       <c r="E1">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:31">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -9565,36 +9929,40 @@
     </row>
     <row r="3" spans="1:31">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>63.5</v>
       </c>
       <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="45">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="60">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
@@ -9604,37 +9972,29 @@
       <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -9643,21 +10003,38 @@
         <v>150</v>
       </c>
       <c r="D6">
-        <f>ROUNDUP((342/B6),0)</f>
+        <f t="shared" ref="D6:D39" si="0">ROUNDUP((342/B6),0)</f>
         <v>35</v>
       </c>
       <c r="E6">
-        <f>ROUNDDOWN((380/B6),0)</f>
+        <f t="shared" ref="E6:E39" si="1">ROUNDDOWN((380/B6),0)</f>
         <v>38</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
+      <c r="G6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="11" t="s">
-        <v>27</v>
+      <c r="A7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -9666,27 +10043,38 @@
         <v>164</v>
       </c>
       <c r="D7">
-        <f>ROUNDUP((342/B7),0)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E7">
-        <f>ROUNDDOWN((380/B7),0)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
+      <c r="G7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="12" t="s">
-        <v>64</v>
+      <c r="A8" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -9695,27 +10083,41 @@
         <v>190</v>
       </c>
       <c r="D8">
-        <f>ROUNDUP((342/B8),0)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E8">
-        <f>ROUNDDOWN((380/B8),0)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" t="s">
-        <v>65</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="11" t="s">
-        <v>34</v>
+      <c r="A9" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -9724,27 +10126,41 @@
         <v>154</v>
       </c>
       <c r="D9">
-        <f>ROUNDUP((342/B9),0)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="E9">
-        <f>ROUNDDOWN((380/B9),0)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" t="s">
-        <v>36</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -9753,27 +10169,42 @@
         <v>164</v>
       </c>
       <c r="D10">
-        <f>ROUNDUP((342/B10),0)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="E10">
-        <f>ROUNDDOWN((380/B10),0)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="19">
+        <f>'Vestas V164'!D82</f>
+        <v>20.526278158536559</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10">
         <v>25</v>
       </c>
-      <c r="P10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="30.95" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>75</v>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -9782,27 +10213,38 @@
         <v>180</v>
       </c>
       <c r="D11">
-        <f>ROUNDUP((342/B11),0)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="E11">
-        <f>ROUNDDOWN((380/B11),0)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>32</v>
-      </c>
+      <c r="G11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -9811,30 +10253,41 @@
         <v>154</v>
       </c>
       <c r="D12">
-        <f>ROUNDUP((342/B12),0)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E12">
-        <f>ROUNDDOWN((380/B12),0)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="L12" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>32</v>
-      </c>
+      <c r="G12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="12" t="s">
-        <v>79</v>
+      <c r="A13" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -9843,24 +10296,38 @@
         <v>171.2</v>
       </c>
       <c r="D13">
-        <f>ROUNDUP((342/B13),0)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E13">
-        <f>ROUNDDOWN((380/B13),0)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" t="s">
-        <v>80</v>
-      </c>
+      <c r="G13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="11" t="s">
-        <v>19</v>
+      <c r="A14" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>6.5</v>
@@ -9869,21 +10336,38 @@
         <v>122</v>
       </c>
       <c r="D14">
-        <f>ROUNDUP((342/B14),0)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E14">
-        <f>ROUNDDOWN((380/B14),0)</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
+      <c r="G14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>6.15</v>
@@ -9892,48 +10376,42 @@
         <v>126</v>
       </c>
       <c r="D15">
-        <f>ROUNDUP((342/B15),0)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E15">
-        <f>ROUNDDOWN((380/B15),0)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G15" s="19">
+        <f>'Senvion 6.2M 126'!D96</f>
+        <v>14.103890632092222</v>
+      </c>
+      <c r="H15">
+        <v>3.5</v>
+      </c>
       <c r="I15">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="J15">
-        <v>14</v>
-      </c>
-      <c r="K15">
         <v>30</v>
       </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="10">
-        <f>3046/1000</f>
-        <v>3.0459999999999998</v>
-      </c>
-      <c r="N15" s="10">
-        <f>IF(G15&gt;96,96*M15,G15*M15)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <f>0.9*N15</f>
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>26</v>
-      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:31">
-      <c r="A16" s="9" t="s">
-        <v>67</v>
+      <c r="A16" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B16">
         <v>6.15</v>
@@ -9942,24 +10420,39 @@
         <v>152</v>
       </c>
       <c r="D16">
-        <f>ROUNDUP((342/B16),0)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E16">
-        <f>ROUNDDOWN((380/B16),0)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="11" t="s">
-        <v>21</v>
+      <c r="G16" s="19">
+        <f>'Senvion 6.2M 152'!D35</f>
+        <v>16.55684957317569</v>
+      </c>
+      <c r="H16">
+        <v>3.5</v>
+      </c>
+      <c r="I16">
+        <v>11.5</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -9968,24 +10461,38 @@
         <v>120</v>
       </c>
       <c r="D17">
-        <f>ROUNDUP((342/B17),0)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E17">
-        <f>ROUNDDOWN((380/B17),0)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="G17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -9994,24 +10501,38 @@
         <v>136</v>
       </c>
       <c r="D18">
-        <f>ROUNDUP((342/B18),0)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E18">
-        <f>ROUNDDOWN((380/B18),0)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="L18" t="s">
+      <c r="G18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18">
+        <v>3.5</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
         <v>25</v>
       </c>
-      <c r="P18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -10020,24 +10541,38 @@
         <v>140</v>
       </c>
       <c r="D19">
-        <f>ROUNDUP((342/B19),0)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E19">
-        <f>ROUNDDOWN((380/B19),0)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="L19" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="9" t="s">
+      <c r="G19" s="19" t="s">
         <v>69</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -10046,24 +10581,38 @@
         <v>150</v>
       </c>
       <c r="D20">
-        <f>ROUNDUP((342/B20),0)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E20">
-        <f>ROUNDDOWN((380/B20),0)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="L20" t="s">
+      <c r="G20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20">
         <v>25</v>
       </c>
-      <c r="P20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="9" t="s">
-        <v>71</v>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -10072,24 +10621,38 @@
         <v>154</v>
       </c>
       <c r="D21">
-        <f>ROUNDUP((342/B21),0)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E21">
-        <f>ROUNDDOWN((380/B21),0)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="L21" t="s">
+      <c r="G21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+      <c r="J21">
         <v>25</v>
       </c>
-      <c r="P21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="9" t="s">
-        <v>73</v>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -10098,24 +10661,42 @@
         <v>155</v>
       </c>
       <c r="D22">
-        <f>ROUNDUP((342/B22),0)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="E22">
-        <f>ROUNDDOWN((380/B22),0)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="L22" t="s">
+      <c r="F22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="19">
+        <f>'Sinovel SL6000'!D35</f>
+        <v>13.709353348674307</v>
+      </c>
+      <c r="H22">
+        <v>3.5</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
         <v>25</v>
       </c>
-      <c r="P22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="12" t="s">
-        <v>59</v>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B23">
         <v>5.5</v>
@@ -10124,27 +10705,41 @@
         <v>140</v>
       </c>
       <c r="D23">
-        <f>ROUNDUP((342/B23),0)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E23">
-        <f>ROUNDDOWN((380/B23),0)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="L23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="9" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B24">
         <v>5.5</v>
@@ -10153,21 +10748,38 @@
         <v>140</v>
       </c>
       <c r="D24">
-        <f>ROUNDUP((342/B24),0)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E24">
-        <f>ROUNDDOWN((380/B24),0)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="L24" t="s">
+      <c r="G24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24">
+        <v>3.5</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>5.2</v>
@@ -10176,24 +10788,29 @@
         <v>127</v>
       </c>
       <c r="D25">
-        <f>ROUNDUP((342/B25),0)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E25">
-        <f>ROUNDDOWN((380/B25),0)</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="11" t="s">
-        <v>43</v>
+      <c r="G25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B26">
         <v>5.0750000000000002</v>
@@ -10202,24 +10819,38 @@
         <v>126</v>
       </c>
       <c r="D26">
-        <f>ROUNDUP((342/B26),0)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="E26">
-        <f>ROUNDDOWN((380/B26),0)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="L26" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="30">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
+      <c r="G26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" ht="30">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -10228,48 +10859,42 @@
         <v>116</v>
       </c>
       <c r="D27">
-        <f>ROUNDUP((342/B27),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E27">
-        <f>ROUNDDOWN((380/B27),0)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G27" s="19">
+        <f>'AD 5-116'!D74</f>
+        <v>11.392139068267781</v>
+      </c>
+      <c r="H27">
+        <v>3.5</v>
+      </c>
       <c r="I27">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="J27">
-        <v>12</v>
-      </c>
-      <c r="K27">
         <v>25</v>
       </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="10">
-        <f>2926/1000</f>
-        <v>2.9260000000000002</v>
-      </c>
-      <c r="N27" s="10">
-        <f>IF(G27&gt;96,96*M27,G27*M27)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="10">
-        <f>0.9*N27</f>
-        <v>0</v>
-      </c>
-      <c r="P27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="11" t="s">
-        <v>33</v>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -10278,33 +10903,41 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <f>ROUNDUP((342/B28),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E28">
-        <f>ROUNDDOWN((380/B28),0)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28">
+        <v>3.5</v>
+      </c>
       <c r="I28">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="J28">
-        <v>12</v>
-      </c>
-      <c r="K28">
         <v>25</v>
       </c>
-      <c r="L28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -10313,24 +10946,38 @@
         <v>126</v>
       </c>
       <c r="D29">
-        <f>ROUNDUP((342/B29),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E29">
-        <f>ROUNDDOWN((380/B29),0)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="L29" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="G29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -10339,24 +10986,39 @@
         <v>126</v>
       </c>
       <c r="D30">
-        <f>ROUNDUP((342/B30),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E30">
-        <f>ROUNDDOWN((380/B30),0)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="L30" t="s">
+      <c r="G30" s="19">
+        <f>'Sinovel SL5000'!D35</f>
+        <v>12.606278680470604</v>
+      </c>
+      <c r="H30">
+        <v>3.5</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30">
         <v>25</v>
       </c>
-      <c r="P30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -10365,21 +11027,38 @@
         <v>127</v>
       </c>
       <c r="D31">
-        <f>ROUNDUP((342/B31),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E31">
-        <f>ROUNDDOWN((380/B31),0)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="L31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="G31" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -10388,21 +11067,38 @@
         <v>132</v>
       </c>
       <c r="D32">
-        <f>ROUNDUP((342/B32),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E32">
-        <f>ROUNDDOWN((380/B32),0)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="9" t="s">
-        <v>66</v>
+      <c r="G32" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32">
+        <v>2.5</v>
+      </c>
+      <c r="I32">
+        <v>13.5</v>
+      </c>
+      <c r="J32">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -10411,21 +11107,38 @@
         <v>135</v>
       </c>
       <c r="D33">
-        <f>ROUNDUP((342/B33),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E33">
-        <f>ROUNDDOWN((380/B33),0)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="L33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="9" t="s">
-        <v>81</v>
+      <c r="G33" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33">
+        <v>3.5</v>
+      </c>
+      <c r="I33">
+        <v>11.4</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -10434,21 +11147,38 @@
         <v>151</v>
       </c>
       <c r="D34">
-        <f>ROUNDUP((342/B34),0)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E34">
-        <f>ROUNDDOWN((380/B34),0)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="11" t="s">
-        <v>39</v>
+      <c r="G34" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B35">
         <v>4.5</v>
@@ -10457,24 +11187,38 @@
         <v>114</v>
       </c>
       <c r="D35">
-        <f>ROUNDUP((342/B35),0)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E35">
-        <f>ROUNDDOWN((380/B35),0)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="G35" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>4.0999999999999996</v>
@@ -10483,24 +11227,38 @@
         <v>113</v>
       </c>
       <c r="D36">
-        <f>ROUNDUP((342/B36),0)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="E36">
-        <f>ROUNDDOWN((380/B36),0)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="L36" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="9" t="s">
-        <v>62</v>
+      <c r="G36" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -10509,24 +11267,38 @@
         <v>120</v>
       </c>
       <c r="D37">
-        <f>ROUNDUP((342/B37),0)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="E37">
-        <f>ROUNDDOWN((380/B37),0)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="9" t="s">
-        <v>77</v>
+      <c r="G37" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -10535,27 +11307,41 @@
         <v>130</v>
       </c>
       <c r="D38">
-        <f>ROUNDUP((342/B38),0)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="E38">
-        <f>ROUNDDOWN((380/B38),0)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="L38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="9" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -10564,111 +11350,120 @@
         <v>136</v>
       </c>
       <c r="D39">
-        <f>ROUNDUP((342/B39),0)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="E39">
-        <f>ROUNDDOWN((380/B39),0)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="L39" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" t="s">
-        <v>83</v>
-      </c>
+      <c r="G39" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6">
-    <cfRule type="aboveAverage" dxfId="31" priority="1" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="30" priority="2" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="30" priority="1" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="29" priority="2" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="29" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="265" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="28" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="244" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="245" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="26" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="235" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="236" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="24" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="226" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="227" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="22" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="217" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="218" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="20" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="208" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="209" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="18" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="199" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="200" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="16" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="190" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="191" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="14" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="181" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="182" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="12" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="170" operator="equal">
       <formula>"Ja"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="171" operator="equal">
       <formula>"Nee"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A39">
-    <cfRule type="aboveAverage" dxfId="10" priority="9" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="9" priority="10" aboveAverage="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G39">
-    <cfRule type="cellIs" dxfId="8" priority="73" operator="greaterThan">
-      <formula>95</formula>
-    </cfRule>
+    <cfRule type="aboveAverage" dxfId="9" priority="9" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="10" aboveAverage="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F15">
     <cfRule type="cellIs" dxfId="7" priority="263" operator="equal">
@@ -10686,7 +11481,7 @@
       <formula>"Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L39">
+  <conditionalFormatting sqref="K6:K39">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Prototype"</formula>
     </cfRule>
@@ -10710,17 +11505,1044 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <f>WEIBULL(A3,2.18,10.9,FALSE)*100</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>365*24*(B3/100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:B33" si="0">WEIBULL(A4,2.18,10.9,FALSE)*100</f>
+        <v>1.1871041489185308</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C33" si="1">365*24*(B4/100)</f>
+        <v>103.9903234452633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6381929826532615</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>231.1057052804257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1095013782006768</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>359.99232073037933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4760534056918315</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>479.70227833860446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6409132750619086</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>581.74400289542325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>7.531815677697387</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>659.78705336629116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>8.103875984644489</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>709.89953625485725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>8.3413960929251285</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>730.70629774024121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>8.2569956636591133</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>723.31282013653822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>7.8878057009824785</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>690.97177940606514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2892472864250273</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>638.53806229083239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5273772359864948</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>571.79824587241694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>5.6709670635703011</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>496.77671476875832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>4.7844148335522956</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>419.11473941918109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9223236671613795</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>343.59555324333684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>3.126198488288062</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>273.85498757403423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4233085848822249</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>212.2818320356829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8274216637155682</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>160.08213774148376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3408910483772649</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>117.46205583784841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.95749120205421834</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>83.876229299949529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66543405077472639</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>58.292022847866036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45012281365397694</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>39.430758476088378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.29636524529212604</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>25.961595487590245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18993205752678008</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>16.638048239345935</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11847875556973489</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>10.378738987908775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1935592265598716E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>6.3015578824664473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="0"/>
+        <v>4.2510173573753147E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>3.723891205060776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4449381440920546E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>2.1417658142246401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3685021289004746E-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>1.1988078649168157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5">
+        <f t="shared" si="0"/>
+        <v>7.4541721508194301E-3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.65298548041178206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="42" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>Weibullverdeling!C3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C33" si="0">(0.5*1.293*PI()*(82^2)*(A3^3))/1000</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>Weibullverdeling!C4</f>
+        <v>103.9903234452633</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>13.656710610269965</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D33" si="1">B4*C4</f>
+        <v>1420.1657535603329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>Weibullverdeling!C5</f>
+        <v>231.1057052804257</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>109.25368488215972</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>25249.149899176904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>Weibullverdeling!C6</f>
+        <v>359.99232073037933</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>368.73118647728904</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>132740.39554562554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>Weibullverdeling!C7</f>
+        <v>479.70227833860446</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>874.02947905727774</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>419273.93243887968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>Weibullverdeling!C8</f>
+        <v>581.74400289542325</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>1707.0888262837457</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>993088.68710035598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>Weibullverdeling!C9</f>
+        <v>659.78705336629116</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>2949.8494918183123</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>1946272.5040808558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f>Weibullverdeling!C10</f>
+        <v>709.89953625485725</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>4684.251739322598</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>3325348.1374461208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>Weibullverdeling!C11</f>
+        <v>730.70629774024121</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>6992.2358324582219</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>5109270.7580622006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>Weibullverdeling!C12</f>
+        <v>723.31282013653822</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>9955.7420348868054</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>7201115.847805853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>Weibullverdeling!C13</f>
+        <v>690.97177940606514</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>13656.710610269965</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>9436401.6312119272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>Weibullverdeling!C14</f>
+        <v>638.53806229083239</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>18177.081822269323</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>11606758.604893766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>Weibullverdeling!C15</f>
+        <v>571.79824587241694</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>23598.795934546499</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>13493750.120074812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>Weibullverdeling!C16</f>
+        <v>496.77671476875832</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>30003.793210763117</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>14905185.821844077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>Weibullverdeling!C17</f>
+        <v>419.11473941918109</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>37474.013914580784</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>15705911.576800292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f>Weibullverdeling!C18</f>
+        <v>343.59555324333684</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>46091.398309661134</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>15836799.501967018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f>Weibullverdeling!C19</f>
+        <v>273.85498757403423</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>55937.886659665775</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>15318869.256100506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f>Weibullverdeling!C20</f>
+        <v>212.2818320356829</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>67095.419228256331</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>14243138.514976438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <f>Weibullverdeling!C21</f>
+        <v>160.08213774148376</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>79645.936279094443</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>12749891.741979435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f>Weibullverdeling!C22</f>
+        <v>117.46205583784841</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>93671.378075841698</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>11002832.641952727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f>Weibullverdeling!C23</f>
+        <v>83.876229299949529</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>109253.68488215972</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>9163787.1250404585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <f>Weibullverdeling!C24</f>
+        <v>58.292022847866036</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>126474.79696171015</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>7372471.7541712262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <f>Weibullverdeling!C25</f>
+        <v>39.430758476088378</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>145416.65457815459</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>5733888.9850719851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <f>Weibullverdeling!C26</f>
+        <v>25.961595487590245</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>166161.19799515468</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>4313809.8080835966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f>Weibullverdeling!C27</f>
+        <v>16.638048239345935</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>188790.36747637199</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>3141103.2411957229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f>Weibullverdeling!C28</f>
+        <v>10.378738987908775</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="0"/>
+        <v>213386.10328546821</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>2214678.6696468177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f>Weibullverdeling!C29</f>
+        <v>6.3015578824664473</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="0"/>
+        <v>240030.34568610493</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>1512565.1168894207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f>Weibullverdeling!C30</f>
+        <v>3.723891205060776</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="0"/>
+        <v>268805.03494194371</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>1001000.7054963588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <f>Weibullverdeling!C31</f>
+        <v>2.1417658142246401</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="0"/>
+        <v>299792.11131664627</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>642084.49539222079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <f>Weibullverdeling!C32</f>
+        <v>1.1988078649168157</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="0"/>
+        <v>333073.51507387415</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>399291.14946604992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f>Weibullverdeling!C33</f>
+        <v>0.65298548041178206</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="0"/>
+        <v>368731.18647728907</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>240776.11094467901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18">
+        <f>SUM(D3:D33)</f>
+        <v>189188776.15133217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.85546875"/>
     <col min="10" max="10" width="12.85546875"/>
@@ -10731,30 +12553,30 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -11004,7 +12826,7 @@
       <c r="B13">
         <v>1980</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>1319.7</v>
       </c>
       <c r="E13">
@@ -11034,7 +12856,7 @@
       <c r="B14">
         <v>2800</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>1867.9</v>
       </c>
       <c r="E14">
@@ -11064,7 +12886,7 @@
       <c r="B15">
         <v>4000</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>2643.4</v>
       </c>
       <c r="E15">
@@ -11094,7 +12916,7 @@
       <c r="B16">
         <v>4800</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>3552.2</v>
       </c>
       <c r="E16">
@@ -11124,7 +12946,7 @@
       <c r="B17">
         <v>5000</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>4702.3999999999996</v>
       </c>
       <c r="E17">
@@ -11154,7 +12976,7 @@
       <c r="B18">
         <v>5000</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>5000</v>
       </c>
       <c r="E18">
@@ -11597,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>28</v>
       </c>
@@ -11627,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>29</v>
       </c>
@@ -11657,7 +13479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>30</v>
       </c>
@@ -11687,9 +13509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:18">
       <c r="K37" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M37">
         <f>SUM(M5:M35)</f>
@@ -11700,9 +13522,9 @@
         <v>21552648.480713591</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:18">
       <c r="K38" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M38">
         <f>M37/(365*24)</f>
@@ -11713,136 +13535,687 @@
         <v>2460.3480000814602</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:18">
       <c r="K39" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="M39">
         <f>(M38/8000)*100</f>
         <v>36.586301612481599</v>
       </c>
       <c r="O39" t="e">
-        <f>O37/Sheet1!#REF!</f>
+        <f>O37/Totaal!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
+    <row r="41" spans="1:18" ht="60.75" thickBot="1">
+      <c r="A41" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <f>Weibullverdeling!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>C42*B42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <f>Weibullverdeling!C4</f>
+        <v>103.9903234452633</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D72" si="4">C43*B43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
         <v>2</v>
       </c>
-      <c r="B75">
+      <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
+      <c r="C44" s="5">
+        <f>Weibullverdeling!C5</f>
+        <v>231.1057052804257</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
         <v>3</v>
       </c>
-      <c r="B76">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <f>Weibullverdeling!C6</f>
+        <v>359.99232073037933</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>85.6</v>
+      </c>
+      <c r="C46" s="5">
+        <f>Weibullverdeling!C7</f>
+        <v>479.70227833860446</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>41062.515025784538</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>276.2</v>
+      </c>
+      <c r="C47" s="5">
+        <f>Weibullverdeling!C8</f>
+        <v>581.74400289542325</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>160677.69359971589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>513.29999999999995</v>
+      </c>
+      <c r="C48" s="5">
+        <f>Weibullverdeling!C9</f>
+        <v>659.78705336629116</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>338668.69449291722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>879.8</v>
+      </c>
+      <c r="C49" s="5">
+        <f>Weibullverdeling!C10</f>
+        <v>709.89953625485725</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>624569.61199702334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1319.7</v>
+      </c>
+      <c r="C50" s="5">
+        <f>Weibullverdeling!C11</f>
+        <v>730.70629774024121</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>964313.10112779634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1867.9</v>
+      </c>
+      <c r="C51" s="5">
+        <f>Weibullverdeling!C12</f>
+        <v>723.31282013653822</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>1351076.0167330399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
+      <c r="B52" s="3">
+        <v>2643.4</v>
+      </c>
+      <c r="C52" s="5">
+        <f>Weibullverdeling!C13</f>
+        <v>690.97177940606514</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>1826514.8016819926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" s="3">
+        <v>3552.2</v>
+      </c>
+      <c r="C53" s="5">
+        <f>Weibullverdeling!C14</f>
+        <v>638.53806229083239</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>2268214.9048694945</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3">
+        <v>4702.3999999999996</v>
+      </c>
+      <c r="C54" s="5">
+        <f>Weibullverdeling!C15</f>
+        <v>571.79824587241694</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>2688824.0713904533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C55" s="5">
+        <f>Weibullverdeling!C16</f>
+        <v>496.77671476875832</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="4"/>
+        <v>2483883.5738437916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>5000</v>
+      </c>
+      <c r="C56" s="5">
+        <f>Weibullverdeling!C17</f>
+        <v>419.11473941918109</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="4"/>
+        <v>2095573.6970959054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>5000</v>
+      </c>
+      <c r="C57" s="5">
+        <f>Weibullverdeling!C18</f>
+        <v>343.59555324333684</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="4"/>
+        <v>1717977.7662166841</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>5000</v>
+      </c>
+      <c r="C58" s="5">
+        <f>Weibullverdeling!C19</f>
+        <v>273.85498757403423</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="4"/>
+        <v>1369274.9378701712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>5000</v>
+      </c>
+      <c r="C59" s="5">
+        <f>Weibullverdeling!C20</f>
+        <v>212.2818320356829</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="4"/>
+        <v>1061409.1601784145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>5000</v>
+      </c>
+      <c r="C60" s="5">
+        <f>Weibullverdeling!C21</f>
+        <v>160.08213774148376</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="4"/>
+        <v>800410.68870741886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>5000</v>
+      </c>
+      <c r="C61" s="5">
+        <f>Weibullverdeling!C22</f>
+        <v>117.46205583784841</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="4"/>
+        <v>587310.27918924205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>5000</v>
+      </c>
+      <c r="C62" s="5">
+        <f>Weibullverdeling!C23</f>
+        <v>83.876229299949529</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="4"/>
+        <v>419381.14649974764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>5000</v>
+      </c>
+      <c r="C63" s="5">
+        <f>Weibullverdeling!C24</f>
+        <v>58.292022847866036</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="4"/>
+        <v>291460.11423933017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>5000</v>
+      </c>
+      <c r="C64" s="5">
+        <f>Weibullverdeling!C25</f>
+        <v>39.430758476088378</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="4"/>
+        <v>197153.79238044188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>23</v>
+      </c>
+      <c r="B65">
+        <v>5000</v>
+      </c>
+      <c r="C65" s="5">
+        <f>Weibullverdeling!C26</f>
+        <v>25.961595487590245</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="4"/>
+        <v>129807.97743795122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>5000</v>
+      </c>
+      <c r="C66" s="5">
+        <f>Weibullverdeling!C27</f>
+        <v>16.638048239345935</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="4"/>
+        <v>83190.241196729679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>5000</v>
+      </c>
+      <c r="C67" s="5">
+        <f>Weibullverdeling!C28</f>
+        <v>10.378738987908775</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>51893.694939543879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>26</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <f>Weibullverdeling!C29</f>
+        <v>6.3015578824664473</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>27</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5">
+        <f>Weibullverdeling!C30</f>
+        <v>3.723891205060776</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" s="5">
+        <f>Weibullverdeling!C31</f>
+        <v>2.1417658142246401</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>29</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" s="5">
+        <f>Weibullverdeling!C32</f>
+        <v>1.1988078649168157</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>30</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" s="5">
+        <f>Weibullverdeling!C33</f>
+        <v>0.65298548041178206</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14">
+        <f>SUM(D42:D72)</f>
+        <v>21552648.480713591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18">
+        <f>(D73/Windenergie!D34)*100</f>
+        <v>11.392139068267781</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
         <v>4</v>
       </c>
-      <c r="B77">
+      <c r="B92">
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
+    <row r="93" spans="1:2">
+      <c r="A93">
         <v>5</v>
       </c>
-      <c r="B78">
+      <c r="B93">
         <v>560</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
+    <row r="94" spans="1:2">
+      <c r="A94">
         <v>6</v>
       </c>
-      <c r="B79">
+      <c r="B94">
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
+    <row r="95" spans="1:2">
+      <c r="A95">
         <v>7</v>
       </c>
-      <c r="B80">
+      <c r="B95">
         <v>1470</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
+    <row r="96" spans="1:2">
+      <c r="A96">
         <v>8</v>
       </c>
-      <c r="B81">
+      <c r="B96">
         <v>1980</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
+    <row r="97" spans="1:2">
+      <c r="A97">
         <v>9</v>
       </c>
-      <c r="B82">
+      <c r="B97">
         <v>2800</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
+    <row r="98" spans="1:2">
+      <c r="A98">
         <v>10</v>
       </c>
-      <c r="B83">
+      <c r="B98">
         <v>4000</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
+    <row r="99" spans="1:2">
+      <c r="A99">
         <v>11</v>
       </c>
-      <c r="B84">
+      <c r="B99">
         <v>4800</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
+    <row r="100" spans="1:2">
+      <c r="A100">
         <v>12</v>
       </c>
-      <c r="B85">
+      <c r="B100">
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="B90">
+    <row r="105" spans="1:2">
+      <c r="B105">
         <v>9.44</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="B92">
-        <f>-0.0727*(B90^6)+2.3619*(B90^5)-28.739*(B90^4)+162.81*(B90^3)-380.22*(B90^2)+295.01*B90</f>
+    <row r="107" spans="1:2">
+      <c r="B107">
+        <f>-0.0727*(B105^6)+2.3619*(B105^5)-28.739*(B105^4)+162.81*(B105^3)-380.22*(B105^2)+295.01*B105</f>
         <v>3252.7164736810323</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U92"/>
+  <dimension ref="A3:U96"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.85546875"/>
@@ -11852,22 +14225,22 @@
   <sheetData>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -12087,7 +14460,7 @@
       <c r="B11">
         <v>1085</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1180</v>
       </c>
       <c r="E11">
@@ -12117,7 +14490,7 @@
       <c r="B12">
         <v>1700</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>1805</v>
       </c>
       <c r="E12">
@@ -12147,7 +14520,7 @@
       <c r="B13">
         <v>2450</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>2590</v>
       </c>
       <c r="E13">
@@ -12177,7 +14550,7 @@
       <c r="B14">
         <v>3360</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>3444</v>
       </c>
       <c r="E14">
@@ -12207,7 +14580,7 @@
       <c r="B15">
         <v>4405</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>4363</v>
       </c>
       <c r="E15">
@@ -12237,7 +14610,7 @@
       <c r="B16">
         <v>5390</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>5252</v>
       </c>
       <c r="E16">
@@ -12267,7 +14640,7 @@
       <c r="B17">
         <v>6100</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>5889</v>
       </c>
       <c r="E17">
@@ -12297,7 +14670,7 @@
       <c r="B18">
         <v>6200</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>6138</v>
       </c>
       <c r="E18">
@@ -12327,7 +14700,7 @@
       <c r="B19">
         <v>6200</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>6150</v>
       </c>
       <c r="E19">
@@ -12357,7 +14730,7 @@
       <c r="B20">
         <v>6200</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>6150</v>
       </c>
       <c r="E20">
@@ -12387,7 +14760,7 @@
       <c r="B21">
         <v>6200</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>6150</v>
       </c>
       <c r="E21">
@@ -12417,7 +14790,7 @@
       <c r="B22">
         <v>6200</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>6150</v>
       </c>
       <c r="E22">
@@ -12447,7 +14820,7 @@
       <c r="B23">
         <v>6200</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>6150</v>
       </c>
       <c r="E23">
@@ -12477,7 +14850,7 @@
       <c r="B24">
         <v>6200</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>6150</v>
       </c>
       <c r="E24">
@@ -12507,7 +14880,7 @@
       <c r="B25">
         <v>6200</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>6150</v>
       </c>
       <c r="E25">
@@ -12537,7 +14910,7 @@
       <c r="B26">
         <v>6200</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>6150</v>
       </c>
       <c r="E26">
@@ -12567,7 +14940,7 @@
       <c r="B27">
         <v>6200</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>6150</v>
       </c>
       <c r="E27">
@@ -12597,7 +14970,7 @@
       <c r="B28">
         <v>6200</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>6150</v>
       </c>
       <c r="E28">
@@ -12627,7 +15000,7 @@
       <c r="B29">
         <v>6200</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>6150</v>
       </c>
       <c r="E29">
@@ -12657,7 +15030,7 @@
       <c r="B30">
         <v>6200</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>6150</v>
       </c>
       <c r="E30">
@@ -12687,7 +15060,7 @@
       <c r="B31">
         <v>6200</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>6150</v>
       </c>
       <c r="E31">
@@ -12717,7 +15090,7 @@
       <c r="B32">
         <v>6200</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>6150</v>
       </c>
       <c r="E32">
@@ -12747,7 +15120,7 @@
       <c r="B33">
         <v>6200</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>6150</v>
       </c>
       <c r="E33">
@@ -12777,7 +15150,7 @@
       <c r="B34">
         <v>6200</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>6150</v>
       </c>
       <c r="E34">
@@ -12802,7 +15175,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="K36" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M36">
         <f>SUM(M4:M34)</f>
@@ -12813,7 +15186,7 @@
         <v>26747548.41934032</v>
       </c>
       <c r="S36" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="U36">
         <f>61*M36</f>
@@ -12822,7 +15195,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="K37" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M37">
         <f>M36/(365*24)</f>
@@ -12835,103 +15208,584 @@
     </row>
     <row r="38" spans="1:21">
       <c r="K38" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="M38">
         <f>(M37/8000)*100</f>
         <v>38.075025794203285</v>
       </c>
       <c r="O38" t="e">
-        <f>O36/Sheet1!#REF!</f>
+        <f>O36/Totaal!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="1:4">
       <c r="D58">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="1:4">
       <c r="D60">
         <f>-0.1801*(D58^5)+5.9399*(D58^4)-73.079*(D58^3)+481.82*(D58^2)-1473.9*(D58)+1624.9</f>
         <v>6116.8315999999922</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="63" spans="1:4" ht="30.75" thickBot="1">
+      <c r="A63" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" s="17">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <f>Weibullverdeling!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f>C64*B64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" s="17">
+        <v>0</v>
+      </c>
+      <c r="C65" s="5">
+        <f>Weibullverdeling!C4</f>
+        <v>103.9903234452633</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" ref="D65:D94" si="5">C65*B65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" s="17">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <f>Weibullverdeling!C5</f>
+        <v>231.1057052804257</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" s="17">
+        <v>0</v>
+      </c>
+      <c r="C67" s="5">
+        <f>Weibullverdeling!C6</f>
+        <v>359.99232073037933</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68" s="17">
+        <v>109</v>
+      </c>
+      <c r="C68" s="5">
+        <f>Weibullverdeling!C7</f>
+        <v>479.70227833860446</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="5"/>
+        <v>52287.548338907887</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69" s="17">
+        <v>313</v>
+      </c>
+      <c r="C69" s="5">
+        <f>Weibullverdeling!C8</f>
+        <v>581.74400289542325</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="5"/>
+        <v>182085.87290626747</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70" s="17">
+        <v>625</v>
+      </c>
+      <c r="C70" s="5">
+        <f>Weibullverdeling!C9</f>
+        <v>659.78705336629116</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="5"/>
+        <v>412366.90835393197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71" s="17">
+        <v>1085</v>
+      </c>
+      <c r="C71" s="5">
+        <f>Weibullverdeling!C10</f>
+        <v>709.89953625485725</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="5"/>
+        <v>770240.99683652015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" s="17">
+        <v>1700</v>
+      </c>
+      <c r="C72" s="5">
+        <f>Weibullverdeling!C11</f>
+        <v>730.70629774024121</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="5"/>
+        <v>1242200.7061584101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73" s="17">
+        <v>2450</v>
+      </c>
+      <c r="C73" s="5">
+        <f>Weibullverdeling!C12</f>
+        <v>723.31282013653822</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="5"/>
+        <v>1772116.4093345187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74" s="17">
+        <v>3360</v>
+      </c>
+      <c r="C74" s="5">
+        <f>Weibullverdeling!C13</f>
+        <v>690.97177940606514</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="5"/>
+        <v>2321665.178804379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75" s="17">
+        <v>4405</v>
+      </c>
+      <c r="C75" s="5">
+        <f>Weibullverdeling!C14</f>
+        <v>638.53806229083239</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="5"/>
+        <v>2812760.1643911167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>12</v>
+      </c>
+      <c r="B76" s="17">
+        <v>5390</v>
+      </c>
+      <c r="C76" s="5">
+        <f>Weibullverdeling!C15</f>
+        <v>571.79824587241694</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="5"/>
+        <v>3081992.5452523273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77" s="17">
+        <v>6100</v>
+      </c>
+      <c r="C77" s="5">
+        <f>Weibullverdeling!C16</f>
+        <v>496.77671476875832</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="5"/>
+        <v>3030337.9600894256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B78" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C78" s="5">
+        <f>Weibullverdeling!C17</f>
+        <v>419.11473941918109</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="5"/>
+        <v>2598511.3843989228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B79" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C79" s="5">
+        <f>Weibullverdeling!C18</f>
+        <v>343.59555324333684</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="5"/>
+        <v>2130292.4301086883</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="B80" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C80" s="5">
+        <f>Weibullverdeling!C19</f>
+        <v>273.85498757403423</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="5"/>
+        <v>1697900.9229590122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="B81" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C81" s="5">
+        <f>Weibullverdeling!C20</f>
+        <v>212.2818320356829</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="5"/>
+        <v>1316147.3586212338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="B82" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C82" s="5">
+        <f>Weibullverdeling!C21</f>
+        <v>160.08213774148376</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="5"/>
+        <v>992509.25399719935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="B83" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C83" s="5">
+        <f>Weibullverdeling!C22</f>
+        <v>117.46205583784841</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="5"/>
+        <v>728264.7461946602</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="B84" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C84" s="5">
+        <f>Weibullverdeling!C23</f>
+        <v>83.876229299949529</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="5"/>
+        <v>520032.62165968708</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="B85" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C85" s="5">
+        <f>Weibullverdeling!C24</f>
+        <v>58.292022847866036</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="5"/>
+        <v>361410.5416567694</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="B86" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C86" s="5">
+        <f>Weibullverdeling!C25</f>
+        <v>39.430758476088378</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="5"/>
+        <v>244470.70255174793</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="B87" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C87" s="5">
+        <f>Weibullverdeling!C26</f>
+        <v>25.961595487590245</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="5"/>
+        <v>160961.89202305951</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="B92" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B88" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C88" s="5">
+        <f>Weibullverdeling!C27</f>
+        <v>16.638048239345935</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="5"/>
+        <v>103155.89908394479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>25</v>
+      </c>
+      <c r="B89" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C89" s="5">
+        <f>Weibullverdeling!C28</f>
+        <v>10.378738987908775</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="5"/>
+        <v>64348.18172503441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>26</v>
+      </c>
+      <c r="B90" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C90" s="5">
+        <f>Weibullverdeling!C29</f>
+        <v>6.3015578824664473</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="5"/>
+        <v>39069.658871291977</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>27</v>
+      </c>
+      <c r="B91" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C91" s="5">
+        <f>Weibullverdeling!C30</f>
+        <v>3.723891205060776</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="5"/>
+        <v>23088.12547137681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>28</v>
+      </c>
+      <c r="B92" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C92" s="5">
+        <f>Weibullverdeling!C31</f>
+        <v>2.1417658142246401</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="5"/>
+        <v>13278.948048192768</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>29</v>
+      </c>
+      <c r="B93" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C93" s="5">
+        <f>Weibullverdeling!C32</f>
+        <v>1.1988078649168157</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="5"/>
+        <v>7432.6087624842576</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>30</v>
+      </c>
+      <c r="B94" s="17">
+        <v>6200</v>
+      </c>
+      <c r="C94" s="5">
+        <f>Weibullverdeling!C33</f>
+        <v>0.65298548041178206</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="5"/>
+        <v>4048.5099785530488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18">
+        <f>SUM(D64:D94)</f>
+        <v>26682978.076577663</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18">
+        <f>(D95/Windenergie!D34)*100</f>
+        <v>14.103890632092222</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
@@ -12939,25 +15793,25 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="S1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -13070,7 +15924,7 @@
         <f>365*24*(H6/100)</f>
         <v>479.70227833860446</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <f t="shared" si="2"/>
         <v>54.206357452262303</v>
       </c>
@@ -13093,7 +15947,7 @@
         <f t="shared" si="1"/>
         <v>581.74400289542325</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="5">
         <f t="shared" si="2"/>
         <v>339.7384976909272</v>
       </c>
@@ -13102,7 +15956,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>1158</v>
       </c>
       <c r="E8">
@@ -13116,7 +15970,7 @@
         <f t="shared" si="1"/>
         <v>659.78705336629116</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="5">
         <f t="shared" si="2"/>
         <v>764.03340779816517</v>
       </c>
@@ -13125,10 +15979,10 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>1904</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="3"/>
       <c r="E9">
         <v>7</v>
       </c>
@@ -13140,7 +15994,7 @@
         <f t="shared" si="1"/>
         <v>709.89953625485725</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="5">
         <f t="shared" si="2"/>
         <v>1351.648717029248</v>
       </c>
@@ -13149,10 +16003,10 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>2958</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="3"/>
       <c r="E10">
         <v>8</v>
       </c>
@@ -13164,7 +16018,7 @@
         <f t="shared" si="1"/>
         <v>730.70629774024121</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
         <f t="shared" si="2"/>
         <v>2161.4292287156336</v>
       </c>
@@ -13173,10 +16027,10 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>4200</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="3"/>
       <c r="E11">
         <v>9</v>
       </c>
@@ -13188,7 +16042,7 @@
         <f t="shared" si="1"/>
         <v>723.31282013653822</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="5">
         <f t="shared" si="2"/>
         <v>3037.9138445734607</v>
       </c>
@@ -13197,10 +16051,10 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>5686</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="3"/>
       <c r="E12">
         <v>10</v>
       </c>
@@ -13212,7 +16066,7 @@
         <f t="shared" si="1"/>
         <v>690.97177940606514</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="5">
         <f t="shared" si="2"/>
         <v>3928.8655377028863</v>
       </c>
@@ -13221,10 +16075,10 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>7217</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="3"/>
       <c r="E13">
         <v>11</v>
       </c>
@@ -13236,7 +16090,7 @@
         <f t="shared" si="1"/>
         <v>638.53806229083239</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="5">
         <f t="shared" si="2"/>
         <v>4608.3291955529376</v>
       </c>
@@ -13245,10 +16099,10 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>7915</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="3"/>
       <c r="E14">
         <v>12</v>
       </c>
@@ -13260,7 +16114,7 @@
         <f t="shared" si="1"/>
         <v>571.79824587241694</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="5">
         <f t="shared" si="2"/>
         <v>4525.7831160801798</v>
       </c>
@@ -13269,10 +16123,10 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>7999</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="3"/>
       <c r="E15">
         <v>13</v>
       </c>
@@ -13284,7 +16138,7 @@
         <f t="shared" si="1"/>
         <v>496.77671476875832</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="5">
         <f t="shared" si="2"/>
         <v>3973.7169414352979</v>
       </c>
@@ -13293,10 +16147,10 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>8000</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="3"/>
       <c r="E16">
         <v>14</v>
       </c>
@@ -13308,7 +16162,7 @@
         <f t="shared" si="1"/>
         <v>419.11473941918109</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="5">
         <f t="shared" si="2"/>
         <v>3352.9179153534487</v>
       </c>
@@ -13317,10 +16171,10 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>8000</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="3"/>
       <c r="E17">
         <v>15</v>
       </c>
@@ -13332,7 +16186,7 @@
         <f t="shared" si="1"/>
         <v>343.59555324333684</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="5">
         <f t="shared" si="2"/>
         <v>2748.7644259466947</v>
       </c>
@@ -13341,10 +16195,10 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>8000</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="3"/>
       <c r="E18">
         <v>16</v>
       </c>
@@ -13356,7 +16210,7 @@
         <f t="shared" si="1"/>
         <v>273.85498757403423</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="5">
         <f t="shared" si="2"/>
         <v>2190.8399005922738</v>
       </c>
@@ -13365,10 +16219,10 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>8000</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="3"/>
       <c r="E19">
         <v>17</v>
       </c>
@@ -13380,7 +16234,7 @@
         <f t="shared" si="1"/>
         <v>212.2818320356829</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="5">
         <f t="shared" si="2"/>
         <v>1698.2546562854632</v>
       </c>
@@ -13389,10 +16243,10 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>8000</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="3"/>
       <c r="E20">
         <v>18</v>
       </c>
@@ -13404,7 +16258,7 @@
         <f t="shared" si="1"/>
         <v>160.08213774148376</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="5">
         <f t="shared" si="2"/>
         <v>1280.6571019318703</v>
       </c>
@@ -13413,10 +16267,10 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>8000</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="3"/>
       <c r="E21">
         <v>19</v>
       </c>
@@ -13428,7 +16282,7 @@
         <f t="shared" si="1"/>
         <v>117.46205583784841</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="5">
         <f t="shared" si="2"/>
         <v>939.69644670278728</v>
       </c>
@@ -13437,10 +16291,10 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>8000</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="3"/>
       <c r="E22">
         <v>20</v>
       </c>
@@ -13452,7 +16306,7 @@
         <f t="shared" si="1"/>
         <v>83.876229299949529</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="5">
         <f t="shared" si="2"/>
         <v>671.00983439959623</v>
       </c>
@@ -13461,10 +16315,10 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>8000</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="3"/>
       <c r="E23">
         <v>21</v>
       </c>
@@ -13476,7 +16330,7 @@
         <f t="shared" si="1"/>
         <v>58.292022847866036</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="5">
         <f t="shared" si="2"/>
         <v>466.33618278292829</v>
       </c>
@@ -13485,10 +16339,10 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>8000</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="3"/>
       <c r="E24">
         <v>22</v>
       </c>
@@ -13500,7 +16354,7 @@
         <f t="shared" si="1"/>
         <v>39.430758476088378</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="5">
         <f t="shared" si="2"/>
         <v>315.44606780870703</v>
       </c>
@@ -13509,10 +16363,10 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>8000</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="3"/>
       <c r="E25">
         <v>23</v>
       </c>
@@ -13524,7 +16378,7 @@
         <f t="shared" si="1"/>
         <v>25.961595487590245</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="5">
         <f t="shared" si="2"/>
         <v>207.69276390072196</v>
       </c>
@@ -13533,10 +16387,10 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>8000</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="3"/>
       <c r="E26">
         <v>24</v>
       </c>
@@ -13548,7 +16402,7 @@
         <f t="shared" si="1"/>
         <v>16.638048239345935</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="5">
         <f t="shared" si="2"/>
         <v>133.10438591476748</v>
       </c>
@@ -13557,10 +16411,10 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>8000</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="3"/>
       <c r="E27">
         <v>25</v>
       </c>
@@ -13572,7 +16426,7 @@
         <f t="shared" si="1"/>
         <v>10.378738987908775</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="5">
         <f t="shared" si="2"/>
         <v>83.029911903270204</v>
       </c>
@@ -13584,7 +16438,7 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="3"/>
       <c r="E28">
         <v>26</v>
       </c>
@@ -13608,7 +16462,7 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="3"/>
       <c r="E29">
         <v>27</v>
       </c>
@@ -13632,7 +16486,7 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="3"/>
       <c r="E30">
         <v>28</v>
       </c>
@@ -13656,7 +16510,7 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="3"/>
       <c r="E31">
         <v>29</v>
       </c>
@@ -13680,7 +16534,7 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="3"/>
       <c r="E32">
         <v>30</v>
       </c>
@@ -13699,14 +16553,14 @@
     </row>
     <row r="34" spans="11:18">
       <c r="K34" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="M34">
         <f>SUM(M2:M32)</f>
         <v>38833.414437553532</v>
       </c>
       <c r="P34" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="R34">
         <f>47*M34</f>
@@ -13715,7 +16569,7 @@
     </row>
     <row r="35" spans="11:18">
       <c r="K35" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M35">
         <f>M34/(365*24)</f>
@@ -13727,19 +16581,2424 @@
     </row>
     <row r="36" spans="11:18">
       <c r="K36" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="M36">
         <f>(1000*M35/8000)*100</f>
         <v>55.412977222536433</v>
       </c>
       <c r="N36" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60.75" thickBot="1">
+      <c r="A49" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" s="17">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <f>Weibullverdeling!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <f>C50*B50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <f>Weibullverdeling!C4</f>
+        <v>103.9903234452633</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" ref="D51:D80" si="4">C51*B51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" s="17">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <f>Weibullverdeling!C5</f>
+        <v>231.1057052804257</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" s="17">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <f>Weibullverdeling!C6</f>
+        <v>359.99232073037933</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" s="17">
+        <v>113</v>
+      </c>
+      <c r="C54" s="5">
+        <f>Weibullverdeling!C7</f>
+        <v>479.70227833860446</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="4"/>
+        <v>54206.357452262302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" s="17">
+        <v>584</v>
+      </c>
+      <c r="C55" s="5">
+        <f>Weibullverdeling!C8</f>
+        <v>581.74400289542325</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="4"/>
+        <v>339738.49769092718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" s="17">
+        <v>1158</v>
+      </c>
+      <c r="C56" s="5">
+        <f>Weibullverdeling!C9</f>
+        <v>659.78705336629116</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="4"/>
+        <v>764033.40779816522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" s="17">
+        <v>1904</v>
+      </c>
+      <c r="C57" s="5">
+        <f>Weibullverdeling!C10</f>
+        <v>709.89953625485725</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="4"/>
+        <v>1351648.7170292481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" s="17">
+        <v>2958</v>
+      </c>
+      <c r="C58" s="5">
+        <f>Weibullverdeling!C11</f>
+        <v>730.70629774024121</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="4"/>
+        <v>2161429.2287156335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" s="17">
+        <v>4200</v>
+      </c>
+      <c r="C59" s="5">
+        <f>Weibullverdeling!C12</f>
+        <v>723.31282013653822</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="4"/>
+        <v>3037913.8445734605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" s="17">
+        <v>5686</v>
+      </c>
+      <c r="C60" s="5">
+        <f>Weibullverdeling!C13</f>
+        <v>690.97177940606514</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="4"/>
+        <v>3928865.5377028864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" s="17">
+        <v>7217</v>
+      </c>
+      <c r="C61" s="5">
+        <f>Weibullverdeling!C14</f>
+        <v>638.53806229083239</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="4"/>
+        <v>4608329.1955529377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62" s="17">
+        <v>7915</v>
+      </c>
+      <c r="C62" s="5">
+        <f>Weibullverdeling!C15</f>
+        <v>571.79824587241694</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="4"/>
+        <v>4525783.1160801798</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" s="17">
+        <v>7999</v>
+      </c>
+      <c r="C63" s="5">
+        <f>Weibullverdeling!C16</f>
+        <v>496.77671476875832</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="4"/>
+        <v>3973716.941435298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>14</v>
+      </c>
+      <c r="B64" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C64" s="5">
+        <f>Weibullverdeling!C17</f>
+        <v>419.11473941918109</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="4"/>
+        <v>3352917.9153534486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>15</v>
+      </c>
+      <c r="B65" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C65" s="5">
+        <f>Weibullverdeling!C18</f>
+        <v>343.59555324333684</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="4"/>
+        <v>2748764.4259466948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C66" s="5">
+        <f>Weibullverdeling!C19</f>
+        <v>273.85498757403423</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="4"/>
+        <v>2190839.900592274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C67" s="5">
+        <f>Weibullverdeling!C20</f>
+        <v>212.2818320356829</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="4"/>
+        <v>1698254.6562854631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>18</v>
+      </c>
+      <c r="B68" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C68" s="5">
+        <f>Weibullverdeling!C21</f>
+        <v>160.08213774148376</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="4"/>
+        <v>1280657.1019318702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C69" s="5">
+        <f>Weibullverdeling!C22</f>
+        <v>117.46205583784841</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="4"/>
+        <v>939696.4467027873</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>20</v>
+      </c>
+      <c r="B70" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C70" s="5">
+        <f>Weibullverdeling!C23</f>
+        <v>83.876229299949529</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="4"/>
+        <v>671009.83439959621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>21</v>
+      </c>
+      <c r="B71" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C71" s="5">
+        <f>Weibullverdeling!C24</f>
+        <v>58.292022847866036</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="4"/>
+        <v>466336.18278292828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>22</v>
+      </c>
+      <c r="B72" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C72" s="5">
+        <f>Weibullverdeling!C25</f>
+        <v>39.430758476088378</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="4"/>
+        <v>315446.06780870701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>23</v>
+      </c>
+      <c r="B73" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C73" s="5">
+        <f>Weibullverdeling!C26</f>
+        <v>25.961595487590245</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="4"/>
+        <v>207692.76390072197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="B74" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C74" s="5">
+        <f>Weibullverdeling!C27</f>
+        <v>16.638048239345935</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="4"/>
+        <v>133104.38591476748</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75" s="17">
+        <v>8000</v>
+      </c>
+      <c r="C75" s="5">
+        <f>Weibullverdeling!C28</f>
+        <v>10.378738987908775</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="4"/>
+        <v>83029.9119032702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>26</v>
+      </c>
+      <c r="B76" s="17">
+        <v>0</v>
+      </c>
+      <c r="C76" s="5">
+        <f>Weibullverdeling!C29</f>
+        <v>6.3015578824664473</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>27</v>
+      </c>
+      <c r="B77" s="17">
+        <v>0</v>
+      </c>
+      <c r="C77" s="5">
+        <f>Weibullverdeling!C30</f>
+        <v>3.723891205060776</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>28</v>
+      </c>
+      <c r="B78" s="17">
+        <v>0</v>
+      </c>
+      <c r="C78" s="5">
+        <f>Weibullverdeling!C31</f>
+        <v>2.1417658142246401</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>29</v>
+      </c>
+      <c r="B79" s="17">
+        <v>0</v>
+      </c>
+      <c r="C79" s="5">
+        <f>Weibullverdeling!C32</f>
+        <v>1.1988078649168157</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>30</v>
+      </c>
+      <c r="B80" s="17">
+        <v>0</v>
+      </c>
+      <c r="C80" s="5">
+        <f>Weibullverdeling!C33</f>
+        <v>0.65298548041178206</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18">
+        <f>SUM(D50:D80)</f>
+        <v>38833414.437553518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5">
+        <f>(D81/Windenergie!D34)*100</f>
+        <v>20.526278158536559</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickTop="1">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Weibullverdeling!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3*B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>Weibullverdeling!C4</f>
+        <v>103.9903234452633</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D33" si="0">C4*B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f>Weibullverdeling!C5</f>
+        <v>231.1057052804257</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Weibullverdeling!C6</f>
+        <v>359.99232073037933</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17">
+        <v>128</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Weibullverdeling!C7</f>
+        <v>479.70227833860446</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>61401.891627341371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17">
+        <v>450</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Weibullverdeling!C8</f>
+        <v>581.74400289542325</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>261784.80130294047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17">
+        <v>931</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Weibullverdeling!C9</f>
+        <v>659.78705336629116</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>614261.74668401713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1620</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Weibullverdeling!C10</f>
+        <v>709.89953625485725</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>1150037.2487328688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2548</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Weibullverdeling!C11</f>
+        <v>730.70629774024121</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>1861839.6466421345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17">
+        <v>3645</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Weibullverdeling!C12</f>
+        <v>723.31282013653822</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>2636475.229397682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17">
+        <v>4957</v>
+      </c>
+      <c r="C13" s="5">
+        <f>Weibullverdeling!C13</f>
+        <v>690.97177940606514</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>3425147.110515865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17">
+        <v>5990</v>
+      </c>
+      <c r="C14" s="5">
+        <f>Weibullverdeling!C14</f>
+        <v>638.53806229083239</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>3824842.9931220859</v>
+      </c>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C15" s="5">
+        <f>Weibullverdeling!C15</f>
+        <v>571.79824587241694</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>3516559.2121153641</v>
+      </c>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C16" s="5">
+        <f>Weibullverdeling!C16</f>
+        <v>496.77671476875832</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>3055176.7958278637</v>
+      </c>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C17" s="5">
+        <f>Weibullverdeling!C17</f>
+        <v>419.11473941918109</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>2577555.6474279636</v>
+      </c>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C18" s="5">
+        <f>Weibullverdeling!C18</f>
+        <v>343.59555324333684</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>2113112.6524465214</v>
+      </c>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C19" s="5">
+        <f>Weibullverdeling!C19</f>
+        <v>273.85498757403423</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>1684208.1735803105</v>
+      </c>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C20" s="5">
+        <f>Weibullverdeling!C20</f>
+        <v>212.2818320356829</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>1305533.2670194497</v>
+      </c>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C21" s="5">
+        <f>Weibullverdeling!C21</f>
+        <v>160.08213774148376</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>984505.14711012517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C22" s="5">
+        <f>Weibullverdeling!C22</f>
+        <v>117.46205583784841</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>722391.64340276772</v>
+      </c>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C23" s="5">
+        <f>Weibullverdeling!C23</f>
+        <v>83.876229299949529</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>515838.81019468961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C24" s="5">
+        <f>Weibullverdeling!C24</f>
+        <v>58.292022847866036</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>358495.9405143761</v>
+      </c>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C25" s="5">
+        <f>Weibullverdeling!C25</f>
+        <v>39.430758476088378</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>242499.16462794354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C26" s="5">
+        <f>Weibullverdeling!C26</f>
+        <v>25.961595487590245</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>159663.81224868001</v>
+      </c>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C27" s="5">
+        <f>Weibullverdeling!C27</f>
+        <v>16.638048239345935</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>102323.9966719775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C28" s="5">
+        <f>Weibullverdeling!C28</f>
+        <v>10.378738987908775</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>63829.244775638967</v>
+      </c>
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C29" s="5">
+        <f>Weibullverdeling!C29</f>
+        <v>6.3015578824664473</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>38754.580977168654</v>
+      </c>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C30" s="5">
+        <f>Weibullverdeling!C30</f>
+        <v>3.723891205060776</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>22901.930911123771</v>
+      </c>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C31" s="5">
+        <f>Weibullverdeling!C31</f>
+        <v>2.1417658142246401</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>13171.859757481536</v>
+      </c>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C32" s="5">
+        <f>Weibullverdeling!C32</f>
+        <v>1.1988078649168157</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>7372.6683692384167</v>
+      </c>
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="17">
+        <v>6150</v>
+      </c>
+      <c r="C33" s="5">
+        <f>Weibullverdeling!C33</f>
+        <v>0.65298548041178206</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>4015.8607045324597</v>
+      </c>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18">
+        <f>SUM(D3:D33)</f>
+        <v>31323701.076708153</v>
+      </c>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18">
+        <f>(D34/Windenergie!D34)*100</f>
+        <v>16.55684957317569</v>
+      </c>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="V41" s="3"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="V45" s="3"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="V48" s="3"/>
+    </row>
+    <row r="49" spans="22:22">
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="22:22">
+      <c r="V50" s="3"/>
+    </row>
+    <row r="51" spans="22:22">
+      <c r="V51" s="3"/>
+    </row>
+    <row r="52" spans="22:22">
+      <c r="V52" s="3"/>
+    </row>
+    <row r="53" spans="22:22">
+      <c r="V53" s="3"/>
+    </row>
+    <row r="54" spans="22:22">
+      <c r="V54" s="3"/>
+    </row>
+    <row r="55" spans="22:22">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="22:22">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="22:22">
+      <c r="V57" s="3"/>
+    </row>
+    <row r="58" spans="22:22">
+      <c r="V58" s="3"/>
+    </row>
+    <row r="59" spans="22:22">
+      <c r="V59" s="3"/>
+    </row>
+    <row r="60" spans="22:22">
+      <c r="V60" s="3"/>
+    </row>
+    <row r="61" spans="22:22">
+      <c r="V61" s="3"/>
+    </row>
+    <row r="62" spans="22:22">
+      <c r="V62" s="3"/>
+    </row>
+    <row r="63" spans="22:22">
+      <c r="V63" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60.75" thickBot="1">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Weibullverdeling!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3*B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>Weibullverdeling!C4</f>
+        <v>103.9903234452633</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D33" si="0">C4*B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f>Weibullverdeling!C5</f>
+        <v>231.1057052804257</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Weibullverdeling!C6</f>
+        <v>359.99232073037933</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>88.736000000000004</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Weibullverdeling!C7</f>
+        <v>479.70227833860446</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>42566.861370654406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>311.09500000000003</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Weibullverdeling!C8</f>
+        <v>581.74400289542325</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>180977.65058075171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>637.53499999999997</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Weibullverdeling!C9</f>
+        <v>659.78705336629116</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>420637.33906787843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1088.799</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Weibullverdeling!C10</f>
+        <v>709.89953625485725</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>772937.90517475235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1685.242</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Weibullverdeling!C11</f>
+        <v>730.70629774024121</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>1231416.9426163596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2397.5039999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Weibullverdeling!C12</f>
+        <v>723.31282013653822</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>1734145.3795286308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3289.38</v>
+      </c>
+      <c r="C13" s="5">
+        <f>Weibullverdeling!C13</f>
+        <v>690.97177940606514</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>2272868.7517427225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4271.9250000000002</v>
+      </c>
+      <c r="C14" s="5">
+        <f>Weibullverdeling!C14</f>
+        <v>638.53806229083239</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>2727786.7117517642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5195.607</v>
+      </c>
+      <c r="C15" s="5">
+        <f>Weibullverdeling!C15</f>
+        <v>571.79824587241694</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>2970838.9688424505</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5902.9639999999999</v>
+      </c>
+      <c r="C16" s="5">
+        <f>Weibullverdeling!C16</f>
+        <v>496.77671476875832</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>2932455.0633182488</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C17" s="5">
+        <f>Weibullverdeling!C17</f>
+        <v>419.11473941918109</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>2514688.4365150863</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C18" s="5">
+        <f>Weibullverdeling!C18</f>
+        <v>343.59555324333684</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>2061573.3194600211</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C19" s="5">
+        <f>Weibullverdeling!C19</f>
+        <v>273.85498757403423</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>1643129.9254442053</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C20" s="5">
+        <f>Weibullverdeling!C20</f>
+        <v>212.2818320356829</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>1273690.9922140974</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C21" s="5">
+        <f>Weibullverdeling!C21</f>
+        <v>160.08213774148376</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>960492.8264489026</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C22" s="5">
+        <f>Weibullverdeling!C22</f>
+        <v>117.46205583784841</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>704772.33502709051</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C23" s="5">
+        <f>Weibullverdeling!C23</f>
+        <v>83.876229299949529</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>503257.37579969718</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C24" s="5">
+        <f>Weibullverdeling!C24</f>
+        <v>58.292022847866036</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>349752.13708719623</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C25" s="5">
+        <f>Weibullverdeling!C25</f>
+        <v>39.430758476088378</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>236584.55085653026</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C26" s="5">
+        <f>Weibullverdeling!C26</f>
+        <v>25.961595487590245</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>155769.57292554146</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C27" s="5">
+        <f>Weibullverdeling!C27</f>
+        <v>16.638048239345935</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>99828.289436075604</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C28" s="5">
+        <f>Weibullverdeling!C28</f>
+        <v>10.378738987908775</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>62272.43392745265</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C29" s="5">
+        <f>Weibullverdeling!C29</f>
+        <v>6.3015578824664473</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>37809.347294798681</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C30" s="5">
+        <f>Weibullverdeling!C30</f>
+        <v>3.723891205060776</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>22343.347230364656</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C31" s="5">
+        <f>Weibullverdeling!C31</f>
+        <v>2.1417658142246401</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>12850.59488534784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C32" s="5">
+        <f>Weibullverdeling!C32</f>
+        <v>1.1988078649168157</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>7192.8471895008943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C33" s="5">
+        <f>Weibullverdeling!C33</f>
+        <v>0.65298548041178206</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>3917.9128824706922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18">
+        <f>SUM(D3:D33)</f>
+        <v>25936557.818618596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18">
+        <f>(D34/Windenergie!D34)*100</f>
+        <v>13.709353348674307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="60.75" thickBot="1">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickTop="1">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Weibullverdeling!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3*B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>Weibullverdeling!C4</f>
+        <v>103.9903234452633</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D33" si="0">C4*B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f>Weibullverdeling!C5</f>
+        <v>231.1057052804257</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Weibullverdeling!C6</f>
+        <v>359.99232073037933</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>123.9</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Weibullverdeling!C7</f>
+        <v>479.70227833860446</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>59435.112286153097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>329.3</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Weibullverdeling!C8</f>
+        <v>581.74400289542325</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>191568.30015346289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>658.5</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Weibullverdeling!C9</f>
+        <v>659.78705336629116</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>434469.77464170271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1109.3</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Weibullverdeling!C10</f>
+        <v>709.89953625485725</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>787491.5555675131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1723.7</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Weibullverdeling!C11</f>
+        <v>730.70629774024121</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>1259518.4454148537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2506.3000000000002</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Weibullverdeling!C12</f>
+        <v>723.31282013653822</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>1812838.9211082058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3400.9</v>
+      </c>
+      <c r="C13" s="5">
+        <f>Weibullverdeling!C13</f>
+        <v>690.97177940606514</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>2349925.924582087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4400.7</v>
+      </c>
+      <c r="C14" s="5">
+        <f>Weibullverdeling!C14</f>
+        <v>638.53806229083239</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>2810014.4507232658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4994.2</v>
+      </c>
+      <c r="C15" s="5">
+        <f>Weibullverdeling!C15</f>
+        <v>571.79824587241694</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>2855674.7995360247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C16" s="5">
+        <f>Weibullverdeling!C16</f>
+        <v>496.77671476875832</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>2483883.5738437916</v>
+      </c>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="5">
+        <f>Weibullverdeling!C17</f>
+        <v>419.11473941918109</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>2095573.6970959054</v>
+      </c>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C18" s="5">
+        <f>Weibullverdeling!C18</f>
+        <v>343.59555324333684</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>1717977.7662166841</v>
+      </c>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C19" s="5">
+        <f>Weibullverdeling!C19</f>
+        <v>273.85498757403423</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>1369274.9378701712</v>
+      </c>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C20" s="5">
+        <f>Weibullverdeling!C20</f>
+        <v>212.2818320356829</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>1061409.1601784145</v>
+      </c>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C21" s="5">
+        <f>Weibullverdeling!C21</f>
+        <v>160.08213774148376</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>800410.68870741886</v>
+      </c>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="5">
+        <f>Weibullverdeling!C22</f>
+        <v>117.46205583784841</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>587310.27918924205</v>
+      </c>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C23" s="5">
+        <f>Weibullverdeling!C23</f>
+        <v>83.876229299949529</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>419381.14649974764</v>
+      </c>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C24" s="5">
+        <f>Weibullverdeling!C24</f>
+        <v>58.292022847866036</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>291460.11423933017</v>
+      </c>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C25" s="5">
+        <f>Weibullverdeling!C25</f>
+        <v>39.430758476088378</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>197153.79238044188</v>
+      </c>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C26" s="5">
+        <f>Weibullverdeling!C26</f>
+        <v>25.961595487590245</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>129807.97743795122</v>
+      </c>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C27" s="5">
+        <f>Weibullverdeling!C27</f>
+        <v>16.638048239345935</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>83190.241196729679</v>
+      </c>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C28" s="5">
+        <f>Weibullverdeling!C28</f>
+        <v>10.378738987908775</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>51893.694939543879</v>
+      </c>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <f>Weibullverdeling!C29</f>
+        <v>6.3015578824664473</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <f>Weibullverdeling!C30</f>
+        <v>3.723891205060776</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <f>Weibullverdeling!C31</f>
+        <v>2.1417658142246401</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <f>Weibullverdeling!C32</f>
+        <v>1.1988078649168157</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <f>Weibullverdeling!C33</f>
+        <v>0.65298548041178206</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18">
+        <f>SUM(D3:D33)</f>
+        <v>23849664.353808641</v>
+      </c>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18">
+        <f>(D34/Windenergie!D34)*100</f>
+        <v>12.606278680470604</v>
+      </c>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="23:23">
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="23:23">
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="23:23">
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="23:23">
+      <c r="W52" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>